--- a/x.xlsx
+++ b/x.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>gitlab</v>
+        <v>key</v>
       </c>
       <c r="B1" t="str">
         <v>zh</v>
@@ -413,970 +413,2441 @@
         <v>en</v>
       </c>
       <c r="D1" t="str">
+        <v>ja</v>
+      </c>
+      <c r="E1" t="str">
+        <v>ko</v>
+      </c>
+      <c r="F1" t="str">
+        <v>gitlab</v>
+      </c>
+      <c r="G1" t="str">
         <v>file</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>line</v>
       </c>
-      <c r="F1" t="str">
-        <v>key</v>
+      <c r="I1" t="str">
+        <v>hash</v>
+      </c>
+      <c r="J1" t="str">
+        <v>context</v>
+      </c>
+      <c r="K1" t="str">
+        <v>status</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>i18n_5f15efdc32ba</v>
       </c>
       <c r="B2" t="str">
-        <v>账号与安全</v>
+        <v>字体大小</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
       </c>
       <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E2">
-        <v>66</v>
-      </c>
-      <c r="F2" t="str">
-        <v>i18n_a23ea08e8442</v>
+      <c r="H2">
+        <v>73</v>
+      </c>
+      <c r="I2" t="str">
+        <v>5f97a567c717</v>
+      </c>
+      <c r="J2" t="str">
+        <v xml:space="preserve"> | &lt;View style={styles.section}&gt; &lt;RenderSectionLine onPress={this._clickMsgNotify} title={'消息通知'} /&gt; &lt;RenderSectionLine onPress={this._clickPhotoSetting} title={'照片设置'} /&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>i18n_d1d4c33c142b</v>
       </c>
       <c r="B3" t="str">
-        <v>字体大小</v>
+        <v>消息通知</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
       </c>
       <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E3">
-        <v>73</v>
-      </c>
-      <c r="F3" t="str">
-        <v>i18n_5f15efdc32ba</v>
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3" t="str">
+        <v>52efb4914adc</v>
+      </c>
+      <c r="J3" t="str">
+        <v xml:space="preserve"> | &lt;RenderSectionLine onPress={this._clickFontScale} title={'字体大小'} /&gt; &lt;RenderSectionLine onPress={this._clickPhotoSetting} title={'照片设置'} /&gt; {!!getOfflineConfig() &amp;&amp; (</v>
+      </c>
+      <c r="K3" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>i18n_50a98c73722b</v>
       </c>
       <c r="B4" t="str">
-        <v>消息通知</v>
+        <v>照片设置</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
       </c>
       <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E4">
-        <v>74</v>
-      </c>
-      <c r="F4" t="str">
-        <v>i18n_d1d4c33c142b</v>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4" t="str">
+        <v>895b7d942ffa</v>
+      </c>
+      <c r="J4" t="str">
+        <v xml:space="preserve"> | &lt;RenderSectionLine onPress={this._clickMsgNotify} title={'消息通知'} /&gt; {!!getOfflineConfig() &amp;&amp; ( &lt;RenderSectionLine onPress={this._clickOfflineDraft} title={'离线草稿'} /&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>i18n_9d80b4efd905</v>
       </c>
       <c r="B5" t="str">
-        <v>照片设置</v>
+        <v>离线草稿</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
       </c>
       <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E5">
-        <v>75</v>
-      </c>
-      <c r="F5" t="str">
-        <v>i18n_50a98c73722b</v>
+      <c r="H5">
+        <v>77</v>
+      </c>
+      <c r="I5" t="str">
+        <v>76e28af7af70</v>
+      </c>
+      <c r="J5" t="str">
+        <v xml:space="preserve"> | {!!getOfflineConfig() &amp;&amp; ( )} {/* &lt;TouchableHighlight onPress={this._clickSystemStatus} activeOpacity={0.9}&gt; */}</v>
+      </c>
+      <c r="K5" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>i18n_6e96fe555e3e</v>
       </c>
       <c r="B6" t="str">
-        <v>离线草稿</v>
+        <v>更新系统配置</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
       </c>
       <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E6">
-        <v>77</v>
-      </c>
-      <c r="F6" t="str">
-        <v>i18n_9d80b4efd905</v>
+      <c r="H6">
+        <v>94</v>
+      </c>
+      <c r="I6" t="str">
+        <v>083ae45e24e5</v>
+      </c>
+      <c r="J6" t="str">
+        <v xml:space="preserve"> | &lt;View style={styles.item}&gt; &lt;/View&gt; &lt;/TouchableHighlight&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>i18n_44efd179aa7e</v>
       </c>
       <c r="B7" t="str">
-        <v>更新系统配置</v>
+        <v>退出登录</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
       </c>
       <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E7">
-        <v>94</v>
-      </c>
-      <c r="F7" t="str">
-        <v>i18n_6e96fe555e3e</v>
+      <c r="H7">
+        <v>128</v>
+      </c>
+      <c r="I7" t="str">
+        <v>36641746ed80</v>
+      </c>
+      <c r="J7" t="str">
+        <v xml:space="preserve"> | &lt;View style={[styles.item, { justifyContent: 'center' }]}&gt; &lt;/View&gt; &lt;/TouchableHighlight&gt;</v>
+      </c>
+      <c r="K7" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>i18n_8c8453b78c76</v>
       </c>
       <c r="B8" t="str">
-        <v>数据一键清除</v>
+        <v>已更新系统配置</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
       </c>
       <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E8">
-        <v>105</v>
-      </c>
-      <c r="F8" t="str">
-        <v>i18n_b8b536cd8220</v>
+      <c r="H8">
+        <v>183</v>
+      </c>
+      <c r="I8" t="str">
+        <v>dd0e192de773</v>
+      </c>
+      <c r="J8" t="str">
+        <v xml:space="preserve"> | }) .catch(() =&gt; Toast.show('更新失败，请稍后再试')) .finally(() =&gt; global.refresh(false));</v>
+      </c>
+      <c r="K8" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v/>
+        <v>i18n_323a57d0d3b6</v>
       </c>
       <c r="B9" t="str">
-        <v>关于我们</v>
+        <v>更新失败，请稍后再试</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
       </c>
       <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E9">
-        <v>117</v>
-      </c>
-      <c r="F9" t="str">
-        <v>i18n_3b2e3653b360</v>
+      <c r="H9">
+        <v>184</v>
+      </c>
+      <c r="I9" t="str">
+        <v>d2215cabdd06</v>
+      </c>
+      <c r="J9" t="str">
+        <v xml:space="preserve"> | .then(() =&gt; Toast.show('已更新系统配置')) .finally(() =&gt; global.refresh(false)); }</v>
+      </c>
+      <c r="K9" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v/>
+        <v>i18n_e366ccf1556c</v>
       </c>
       <c r="B10" t="str">
-        <v>退出登录</v>
+        <v>设置</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
       </c>
       <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
         <v>test/PersonalSettingPage.js</v>
       </c>
-      <c r="E10">
-        <v>128</v>
-      </c>
-      <c r="F10" t="str">
-        <v>i18n_44efd179aa7e</v>
+      <c r="H10">
+        <v>195</v>
+      </c>
+      <c r="I10" t="str">
+        <v>52fe8fc40efa</v>
+      </c>
+      <c r="J10" t="str">
+        <v xml:space="preserve"> | &lt;View style={[styles.view, Constant.style.view_background]}&gt; {this._renderContent()} &lt;/View&gt;</v>
+      </c>
+      <c r="K10" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>i18n_165c9a287357</v>
       </c>
       <c r="B11" t="str">
-        <v>已更新系统配置</v>
+        <v>可访问性标签</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>test/PersonalSettingPage.js</v>
-      </c>
-      <c r="E11">
-        <v>183</v>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>i18n_8c8453b78c76</v>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="str">
+        <v>f4e7fe833d4e</v>
+      </c>
+      <c r="J11" t="str">
+        <v>ComplexTestComponent | testID="嵌套测试ID1" &gt; 正常显示的嵌套文本</v>
+      </c>
+      <c r="K11" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>i18n_e0320c3ccc76</v>
       </c>
       <c r="B12" t="str">
-        <v>更新失败，请稍后再试</v>
+        <v>应该扫描的无障碍标签</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>test/PersonalSettingPage.js</v>
-      </c>
-      <c r="E12">
-        <v>184</v>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v>i18n_323a57d0d3b6</v>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12" t="str">
+        <v>1389340cf54e</v>
+      </c>
+      <c r="J12" t="str">
+        <v>ComplexTestComponent | {/* 非testID的属性，应该被扫描 */} 无障碍相关的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K12" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
+        <v>i18n_ae67d36c801c</v>
       </c>
       <c r="B13" t="str">
-        <v>设置</v>
+        <v>动态ID变量</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>test/PersonalSettingPage.js</v>
-      </c>
-      <c r="E13">
-        <v>195</v>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v>i18n_e366ccf1556c</v>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0a9194a60ac6</v>
+      </c>
+      <c r="J13" t="str">
+        <v xml:space="preserve"> | const FinalTestComponent = () =&gt; {  return (</v>
+      </c>
+      <c r="K13" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v/>
+        <v>i18n_5b9d9ec47f4c</v>
       </c>
       <c r="B14" t="str">
-        <v>可访问性标签</v>
+        <v>基础测试文本</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>test/complexTestId.js</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v>i18n_165c9a287357</v>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="str">
+        <v>a09c21ea0ac3</v>
+      </c>
+      <c r="J14" t="str">
+        <v xml:space="preserve"> | {/* 基础格式测试 */} &lt;div testID={'基础单引号ID'}&gt;基础单引号文本&lt;/div&gt; &lt;div testID={`基础模板字符串ID`}&gt;基础模板文本&lt;/div&gt;</v>
+      </c>
+      <c r="K14" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>i18n_611a7526fad4</v>
       </c>
       <c r="B15" t="str">
-        <v>正常显示的嵌套文本</v>
+        <v>基础单引号文本</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>test/complexTestId.js</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
       </c>
       <c r="F15" t="str">
-        <v>i18n_8df356911c68</v>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15" t="str">
+        <v>daaa41b77b1d</v>
+      </c>
+      <c r="J15" t="str">
+        <v xml:space="preserve"> | &lt;div testID="基础双引号ID"&gt;基础测试文本&lt;/div&gt; &lt;div testID={`基础模板字符串ID`}&gt;基础模板文本&lt;/div&gt; &lt;div testID={dynamicId}&gt;动态变量文本&lt;/div&gt;</v>
+      </c>
+      <c r="K15" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>i18n_370d88f3ef9b</v>
       </c>
       <c r="B16" t="str">
-        <v>多行JSX中的正常文本</v>
+        <v>基础模板文本</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>test/complexTestId.js</v>
-      </c>
-      <c r="E16">
-        <v>23</v>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v>i18n_43880f8e830a</v>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16" t="str">
+        <v>036c67555148</v>
+      </c>
+      <c r="J16" t="str">
+        <v xml:space="preserve"> | &lt;div testID={'基础单引号ID'}&gt;基础单引号文本&lt;/div&gt; &lt;div testID={dynamicId}&gt;动态变量文本&lt;/div&gt; </v>
+      </c>
+      <c r="K16" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>i18n_4cb78f959987</v>
       </c>
       <c r="B17" t="str">
-        <v>模板字符串testID的正常文本</v>
+        <v>动态变量文本</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>test/complexTestId.js</v>
-      </c>
-      <c r="E17">
-        <v>28</v>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v>i18n_11abbc5a3533</v>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17" t="str">
+        <v>3d2ffaa71edc</v>
+      </c>
+      <c r="J17" t="str">
+        <v xml:space="preserve"> | &lt;div testID={`基础模板字符串ID`}&gt;基础模板文本&lt;/div&gt;  {/* 复杂表达式测试 */}</v>
+      </c>
+      <c r="K17" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>i18n_9c0a4a2c6ac3</v>
       </c>
       <c r="B18" t="str">
-        <v>应该扫描的无障碍标签</v>
+        <v>复杂拼接文本</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>test/complexTestId.js</v>
-      </c>
-      <c r="E18">
-        <v>32</v>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v>i18n_e0320c3ccc76</v>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18" t="str">
+        <v>1638cbff4e3d</v>
+      </c>
+      <c r="J18" t="str">
+        <v xml:space="preserve"> | {/* 复杂表达式测试 */} &lt;div testID={`模板${dynamicId}拼接ID`}&gt;模板拼接文本&lt;/div&gt; </v>
+      </c>
+      <c r="K18" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v/>
+        <v>i18n_31b377fed2be</v>
       </c>
       <c r="B19" t="str">
-        <v>无障碍相关的正常文本</v>
+        <v>模板拼接文本</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>test/complexTestId.js</v>
-      </c>
-      <c r="E19">
-        <v>33</v>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>i18n_68312ff61ad3</v>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19" t="str">
+        <v>b96242b215c0</v>
+      </c>
+      <c r="J19" t="str">
+        <v xml:space="preserve"> | &lt;div testID={'复杂' + '拼接' + 'ID'}&gt;复杂拼接文本&lt;/div&gt;  {/* 对象属性格式测试 */}</v>
+      </c>
+      <c r="K19" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v/>
+        <v>i18n_c7495f9609a0</v>
       </c>
       <c r="B20" t="str">
-        <v>动态testID的正常文本</v>
+        <v>对象样式文本</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>test/complexTestId.js</v>
-      </c>
-      <c r="E20">
-        <v>38</v>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
       </c>
       <c r="F20" t="str">
-        <v>i18n_74ffa0678560</v>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" t="str">
+        <v>fed772d03bf5</v>
+      </c>
+      <c r="J20" t="str">
+        <v xml:space="preserve"> | {/* 对象属性格式测试 */} &lt;div {...{testID: '扩展对象中的测试ID'}}&gt;扩展对象文本&lt;/div&gt; </v>
+      </c>
+      <c r="K20" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v/>
+        <v>i18n_850d7efae688</v>
       </c>
       <c r="B21" t="str">
-        <v>动态ID变量</v>
+        <v>扩展对象文本</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v>i18n_ae67d36c801c</v>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21" t="str">
+        <v>1d6807ffe1a0</v>
+      </c>
+      <c r="J21" t="str">
+        <v xml:space="preserve"> | &lt;div style={{testID: '对象样式中的测试ID'}}&gt;对象样式文本&lt;/div&gt;  {/* 嵌套和多属性测试 */}</v>
+      </c>
+      <c r="K21" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>i18n_88f635fc65e1</v>
       </c>
       <c r="B22" t="str">
-        <v>基础测试文本</v>
+        <v>数据测试属性应该扫描</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v>i18n_5b9d9ec47f4c</v>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H22">
+        <v>28</v>
+      </c>
+      <c r="I22" t="str">
+        <v>d0bc2e41ad46</v>
+      </c>
+      <c r="J22" t="str">
+        <v xml:space="preserve"> | onClick={() =&gt; {}} &gt; 多属性嵌套文本</v>
+      </c>
+      <c r="K22" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v/>
+        <v>i18n_60d5fa338a46</v>
       </c>
       <c r="B23" t="str">
-        <v>基础单引号文本</v>
+        <v>data-testid应该被扫描</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
       </c>
       <c r="D23" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E23">
-        <v>11</v>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
       </c>
       <c r="F23" t="str">
-        <v>i18n_611a7526fad4</v>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23" t="str">
+        <v>1cdee9fa4d30</v>
+      </c>
+      <c r="J23" t="str">
+        <v xml:space="preserve"> | {/* 非testID属性，应该被扫描 */} &lt;div test-id="test-id应该被扫描"&gt;test-id文本&lt;/div&gt; &lt;div testid="testid应该被扫描"&gt;testid文本&lt;/div&gt;</v>
+      </c>
+      <c r="K23" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v/>
+        <v>i18n_34778008fd80</v>
       </c>
       <c r="B24" t="str">
-        <v>基础模板文本</v>
+        <v>data-testid文本</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
       </c>
       <c r="F24" t="str">
-        <v>i18n_370d88f3ef9b</v>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H24">
+        <v>34</v>
+      </c>
+      <c r="I24" t="str">
+        <v>806a727696c4</v>
+      </c>
+      <c r="J24" t="str">
+        <v xml:space="preserve"> | {/* 非testID属性，应该被扫描 */} &lt;div test-id="test-id应该被扫描"&gt;test-id文本&lt;/div&gt; &lt;div testid="testid应该被扫描"&gt;testid文本&lt;/div&gt;</v>
+      </c>
+      <c r="K24" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v/>
+        <v>i18n_76f587b7ea72</v>
       </c>
       <c r="B25" t="str">
-        <v>动态变量文本</v>
+        <v>test-id应该被扫描</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E25">
-        <v>13</v>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v>i18n_4cb78f959987</v>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H25">
+        <v>35</v>
+      </c>
+      <c r="I25" t="str">
+        <v>087586eb6486</v>
+      </c>
+      <c r="J25" t="str">
+        <v xml:space="preserve"> | &lt;div data-testid="data-testid应该被扫描"&gt;data-testid文本&lt;/div&gt; &lt;div testid="testid应该被扫描"&gt;testid文本&lt;/div&gt; </v>
+      </c>
+      <c r="K25" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v/>
+        <v>i18n_f309286eb2db</v>
       </c>
       <c r="B26" t="str">
-        <v>复杂拼接文本</v>
+        <v>test-id文本</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>i18n_9c0a4a2c6ac3</v>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26" t="str">
+        <v>0eb1a80f9027</v>
+      </c>
+      <c r="J26" t="str">
+        <v xml:space="preserve"> | &lt;div data-testid="data-testid应该被扫描"&gt;data-testid文本&lt;/div&gt; &lt;div testid="testid应该被扫描"&gt;testid文本&lt;/div&gt; </v>
+      </c>
+      <c r="K26" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v/>
+        <v>i18n_271a21a93337</v>
       </c>
       <c r="B27" t="str">
-        <v>模板拼接文本</v>
+        <v>testid应该被扫描</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
       </c>
       <c r="D27" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E27">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
       </c>
       <c r="F27" t="str">
-        <v>i18n_31b377fed2be</v>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H27">
+        <v>36</v>
+      </c>
+      <c r="I27" t="str">
+        <v>b6ba69a32113</v>
+      </c>
+      <c r="J27" t="str">
+        <v xml:space="preserve"> | &lt;div test-id="test-id应该被扫描"&gt;test-id文本&lt;/div&gt;  {/* 注释中的testID应该被忽略 */}</v>
+      </c>
+      <c r="K27" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>i18n_e0b317d50040</v>
       </c>
       <c r="B28" t="str">
-        <v>对象样式文本</v>
+        <v>testid文本</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
       </c>
       <c r="D28" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v>i18n_c7495f9609a0</v>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H28">
+        <v>36</v>
+      </c>
+      <c r="I28" t="str">
+        <v>06e875d3c39b</v>
+      </c>
+      <c r="J28" t="str">
+        <v xml:space="preserve"> | &lt;div test-id="test-id应该被扫描"&gt;test-id文本&lt;/div&gt;  {/* 注释中的testID应该被忽略 */}</v>
+      </c>
+      <c r="K28" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v/>
+        <v>i18n_1e6a12b451f2</v>
       </c>
       <c r="B29" t="str">
-        <v>扩展对象文本</v>
+        <v>这个testID不应该影响扫描</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
       </c>
       <c r="D29" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E29">
-        <v>21</v>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
       </c>
       <c r="F29" t="str">
-        <v>i18n_850d7efae688</v>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H29">
+        <v>42</v>
+      </c>
+      <c r="I29" t="str">
+        <v>12de41561354</v>
+      </c>
+      <c r="J29" t="str">
+        <v xml:space="preserve"> | {/* 字符串中包含testID关键字但不是属性 */}  {/* 普通文本应该正常扫描 */}</v>
+      </c>
+      <c r="K29" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v>i18n_80f684c1afe6</v>
       </c>
       <c r="B30" t="str">
-        <v>数据测试属性应该扫描</v>
+        <v>包含testID关键字的文本</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
       </c>
       <c r="D30" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E30">
-        <v>28</v>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v>i18n_88f635fc65e1</v>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H30">
+        <v>42</v>
+      </c>
+      <c r="I30" t="str">
+        <v>dd4d5389a896</v>
+      </c>
+      <c r="J30" t="str">
+        <v xml:space="preserve"> | {/* 字符串中包含testID关键字但不是属性 */}  {/* 普通文本应该正常扫描 */}</v>
+      </c>
+      <c r="K30" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v/>
+        <v>i18n_a3f92cd1acf1</v>
       </c>
       <c r="B31" t="str">
-        <v>多属性嵌套文本</v>
+        <v>这是普通段落文本</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
       </c>
       <c r="D31" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>i18n_66480910abe7</v>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H31">
+        <v>45</v>
+      </c>
+      <c r="I31" t="str">
+        <v>bbe2fbeda3d4</v>
+      </c>
+      <c r="J31" t="str">
+        <v xml:space="preserve"> | {/* 普通文本应该正常扫描 */} &lt;span&gt;这是普通span文本&lt;/span&gt; </v>
+      </c>
+      <c r="K31" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>i18n_2c3ffc351b91</v>
       </c>
       <c r="B32" t="str">
-        <v>data-testid应该被扫描</v>
+        <v>这是普通span文本</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E32">
-        <v>34</v>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
       </c>
       <c r="F32" t="str">
-        <v>i18n_60d5fa338a46</v>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H32">
+        <v>46</v>
+      </c>
+      <c r="I32" t="str">
+        <v>28f2b2550d55</v>
+      </c>
+      <c r="J32" t="str">
+        <v xml:space="preserve"> | &lt;p&gt;这是普通段落文本&lt;/p&gt;  {/* 函数调用中的文本应该正常扫描 */}</v>
+      </c>
+      <c r="K32" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v/>
+        <v>i18n_73f65145ea85</v>
       </c>
       <c r="B33" t="str">
-        <v>data-testid文本</v>
+        <v>弹窗消息文本</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E33">
-        <v>34</v>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v>i18n_34778008fd80</v>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H33">
+        <v>49</v>
+      </c>
+      <c r="I33" t="str">
+        <v>1a9909405c6f</v>
+      </c>
+      <c r="J33" t="str">
+        <v xml:space="preserve"> | {/* 函数调用中的文本应该正常扫描 */} {console.log('控制台日志文本')} &lt;/&gt;</v>
+      </c>
+      <c r="K33" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v/>
+        <v>i18n_ddf7bbe3a901</v>
       </c>
       <c r="B34" t="str">
-        <v>test-id应该被扫描</v>
+        <v>控制台日志文本</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E34">
-        <v>35</v>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
       </c>
       <c r="F34" t="str">
-        <v>i18n_76f587b7ea72</v>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34" t="str">
+        <v>20928a2d11d7</v>
+      </c>
+      <c r="J34" t="str">
+        <v xml:space="preserve"> | {alert('弹窗消息文本')} &lt;/&gt; );</v>
+      </c>
+      <c r="K34" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
+        <v>i18n_f9e575a7d1da</v>
       </c>
       <c r="B35" t="str">
-        <v>test-id文本</v>
+        <v>配置对象标题</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
       </c>
       <c r="D35" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E35">
-        <v>35</v>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
       </c>
       <c r="F35" t="str">
-        <v>i18n_f309286eb2db</v>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H35">
+        <v>58</v>
+      </c>
+      <c r="I35" t="str">
+        <v>bc21c362e075</v>
+      </c>
+      <c r="J35" t="str">
+        <v xml:space="preserve"> | testID: '配置对象testID', nested: { testID: '嵌套对象testID',</v>
+      </c>
+      <c r="K35" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v/>
+        <v>i18n_a63944e7c130</v>
       </c>
       <c r="B36" t="str">
-        <v>testid应该被扫描</v>
+        <v>嵌套对象标签</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E36">
-        <v>36</v>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
       </c>
       <c r="F36" t="str">
-        <v>i18n_271a21a93337</v>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H36">
+        <v>61</v>
+      </c>
+      <c r="I36" t="str">
+        <v>810f16f4527f</v>
+      </c>
+      <c r="J36" t="str">
+        <v xml:space="preserve"> | testID: '嵌套对象testID', } };</v>
+      </c>
+      <c r="K36" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v/>
+        <v>i18n_7f24d066107c</v>
       </c>
       <c r="B37" t="str">
-        <v>testid文本</v>
+        <v>类属性testID</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
       </c>
       <c r="D37" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E37">
-        <v>36</v>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
       </c>
       <c r="F37" t="str">
-        <v>i18n_e0b317d50040</v>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H37">
+        <v>68</v>
+      </c>
+      <c r="I37" t="str">
+        <v>6d15fc51ab57</v>
+      </c>
+      <c r="J37" t="str">
+        <v xml:space="preserve"> | constructor() { this.label = '类属性标签'; }</v>
+      </c>
+      <c r="K37" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v/>
+        <v>i18n_5ff3937edfe8</v>
       </c>
       <c r="B38" t="str">
-        <v>这个testID不应该影响扫描</v>
+        <v>类属性标签</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E38">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
       </c>
       <c r="F38" t="str">
-        <v>i18n_1e6a12b451f2</v>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H38">
+        <v>69</v>
+      </c>
+      <c r="I38" t="str">
+        <v>8c5a1859bc1c</v>
+      </c>
+      <c r="J38" t="str">
+        <v xml:space="preserve"> | this.testID = '类属性testID'; } </v>
+      </c>
+      <c r="K38" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v/>
+        <v>i18n_f490032ea3ab</v>
       </c>
       <c r="B39" t="str">
-        <v>包含testID关键字的文本</v>
+        <v>类方法渲染文本</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
       </c>
       <c r="D39" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E39">
-        <v>42</v>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
       </c>
       <c r="F39" t="str">
-        <v>i18n_80f684c1afe6</v>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H39">
+        <v>73</v>
+      </c>
+      <c r="I39" t="str">
+        <v>fb87f7f815e7</v>
+      </c>
+      <c r="J39" t="str">
+        <v xml:space="preserve"> | render() { } }</v>
+      </c>
+      <c r="K39" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v>i18n_2d82bd0c51e7</v>
       </c>
       <c r="B40" t="str">
-        <v>这是普通段落文本</v>
+        <v>变量测试ID</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
       </c>
       <c r="D40" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E40">
-        <v>45</v>
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
       </c>
       <c r="F40" t="str">
-        <v>i18n_a3f92cd1acf1</v>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40" t="str">
+        <v>67b70b316761</v>
+      </c>
+      <c r="J40" t="str">
+        <v>TestComponent | function TestComponent() { return ( &lt;View&gt;</v>
+      </c>
+      <c r="K40" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v/>
+        <v>i18n_511aecbd28db</v>
       </c>
       <c r="B41" t="str">
-        <v>这是普通span文本</v>
+        <v>正常显示文本1</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
       </c>
       <c r="D41" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E41">
-        <v>46</v>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
       </c>
       <c r="F41" t="str">
-        <v>i18n_2c3ffc351b91</v>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41" t="str">
+        <v>b2c943c359af</v>
+      </c>
+      <c r="J41" t="str">
+        <v>TestComponent | {/* JSX属性格式 - 双引号 */}  {/* JSX属性格式 - 单引号 */}</v>
+      </c>
+      <c r="K41" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>i18n_1697e5217465</v>
       </c>
       <c r="B42" t="str">
-        <v>弹窗消息文本</v>
+        <v>正常显示文本2</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
       </c>
       <c r="D42" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E42">
-        <v>49</v>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v>i18n_73f65145ea85</v>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42" t="str">
+        <v>8f70bcfbbaaa</v>
+      </c>
+      <c r="J42" t="str">
+        <v>TestComponent | {/* JSX属性格式 - 单引号 */}  {/* JSX属性格式 - 变量 */}</v>
+      </c>
+      <c r="K42" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v/>
+        <v>i18n_8c5a766e3f7f</v>
       </c>
       <c r="B43" t="str">
-        <v>控制台日志文本</v>
+        <v>正常显示文本3</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
       </c>
       <c r="D43" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E43">
-        <v>50</v>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
       </c>
       <c r="F43" t="str">
-        <v>i18n_ddf7bbe3a901</v>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43" t="str">
+        <v>1484b714e008</v>
+      </c>
+      <c r="J43" t="str">
+        <v>TestComponent | {/* JSX属性格式 - 变量 */}  {/* 对象属性格式 */}</v>
+      </c>
+      <c r="K43" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>i18n_6a95db2b99d6</v>
       </c>
       <c r="B44" t="str">
-        <v>配置对象标题</v>
+        <v>正常显示文本4</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E44">
-        <v>58</v>
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
       </c>
       <c r="F44" t="str">
-        <v>i18n_f9e575a7d1da</v>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H44">
+        <v>19</v>
+      </c>
+      <c r="I44" t="str">
+        <v>1a1a23c51775</v>
+      </c>
+      <c r="J44" t="str">
+        <v>TestComponent | {/* 对象属性格式 */}  {/* 对象属性格式 - 不带引号的key */}</v>
+      </c>
+      <c r="K44" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v/>
+        <v>i18n_7bf95dcec84e</v>
       </c>
       <c r="B45" t="str">
-        <v>嵌套对象标签</v>
+        <v>正常显示文本5</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
       </c>
       <c r="D45" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E45">
-        <v>61</v>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
       </c>
       <c r="F45" t="str">
-        <v>i18n_a63944e7c130</v>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H45">
+        <v>22</v>
+      </c>
+      <c r="I45" t="str">
+        <v>47942e087fe1</v>
+      </c>
+      <c r="J45" t="str">
+        <v>TestComponent | {/* 对象属性格式 - 不带引号的key */}  {/* 普通文本 - 应该被扫描 */}</v>
+      </c>
+      <c r="K45" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v/>
+        <v>i18n_341966ac0dd9</v>
       </c>
       <c r="B46" t="str">
-        <v>类属性testID</v>
+        <v>这是普通中文文本</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E46">
-        <v>68</v>
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
       </c>
       <c r="F46" t="str">
-        <v>i18n_7f24d066107c</v>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H46">
+        <v>25</v>
+      </c>
+      <c r="I46" t="str">
+        <v>674b3bf87c11</v>
+      </c>
+      <c r="J46" t="str">
+        <v>TestComponent | {/* 普通文本 - 应该被扫描 */}  {/* Toast消息 - 应该被扫描 */}</v>
+      </c>
+      <c r="K46" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v/>
+        <v>i18n_b5b3a30b7d70</v>
       </c>
       <c r="B47" t="str">
-        <v>类属性标签</v>
+        <v>这是Toast消息</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
       </c>
       <c r="D47" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E47">
-        <v>69</v>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
       </c>
       <c r="F47" t="str">
-        <v>i18n_5ff3937edfe8</v>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H47">
+        <v>28</v>
+      </c>
+      <c r="I47" t="str">
+        <v>f786bbe783ae</v>
+      </c>
+      <c r="J47" t="str">
+        <v>TestComponent | {/* Toast消息 - 应该被扫描 */} &lt;/View&gt; );</v>
+      </c>
+      <c r="K47" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v/>
+        <v>i18n_d7b6ace8d1e6</v>
       </c>
       <c r="B48" t="str">
-        <v>类方法渲染文本</v>
+        <v>配置标题文本</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
       </c>
       <c r="D48" t="str">
-        <v>test/finalTest.js</v>
-      </c>
-      <c r="E48">
-        <v>73</v>
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
       </c>
       <c r="F48" t="str">
-        <v>i18n_f490032ea3ab</v>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H48">
+        <v>36</v>
+      </c>
+      <c r="I48" t="str">
+        <v>24cc6534f4f3</v>
+      </c>
+      <c r="J48" t="str">
+        <v xml:space="preserve"> | testID: '配置对象中的测试ID', }; </v>
+      </c>
+      <c r="K48" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v/>
+        <v>i18n_a23ea08e8442</v>
       </c>
       <c r="B49" t="str">
-        <v>变量测试ID</v>
+        <v>账号与安全</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
       </c>
       <c r="D49" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
       </c>
       <c r="F49" t="str">
-        <v>i18n_2d82bd0c51e7</v>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>test/PersonalSettingPage.js</v>
+      </c>
+      <c r="H49">
+        <v>65</v>
+      </c>
+      <c r="I49" t="str">
+        <v>5bf2a0dda8c5</v>
+      </c>
+      <c r="J49" t="str">
+        <v xml:space="preserve"> | &lt;View style={styles.item}&gt; 账号与安全 &lt;/Text&gt;</v>
+      </c>
+      <c r="K49" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
+        <v>i18n_b8b536cd8220</v>
       </c>
       <c r="B50" t="str">
-        <v>正常显示文本1</v>
+        <v>数据一键清除</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
       </c>
       <c r="D50" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E50">
-        <v>10</v>
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
       </c>
       <c r="F50" t="str">
-        <v>i18n_511aecbd28db</v>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>test/PersonalSettingPage.js</v>
+      </c>
+      <c r="H50">
+        <v>104</v>
+      </c>
+      <c r="I50" t="str">
+        <v>eadea0eda2c1</v>
+      </c>
+      <c r="J50" t="str">
+        <v xml:space="preserve"> | &lt;View style={styles.item}&gt; 数据一键清除 &lt;/Text&gt;</v>
+      </c>
+      <c r="K50" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v/>
+        <v>i18n_3b2e3653b360</v>
       </c>
       <c r="B51" t="str">
-        <v>正常显示文本2</v>
+        <v>关于我们</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
       </c>
       <c r="D51" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E51">
-        <v>13</v>
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v/>
       </c>
       <c r="F51" t="str">
-        <v>i18n_1697e5217465</v>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>test/PersonalSettingPage.js</v>
+      </c>
+      <c r="H51">
+        <v>116</v>
+      </c>
+      <c r="I51" t="str">
+        <v>c63579417c09</v>
+      </c>
+      <c r="J51" t="str">
+        <v xml:space="preserve"> | &lt;View style={styles.item}&gt; 关于我们 &lt;/Text&gt;</v>
+      </c>
+      <c r="K51" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
+        <v>i18n_8df356911c68</v>
       </c>
       <c r="B52" t="str">
-        <v>正常显示文本3</v>
+        <v>正常显示的嵌套文本</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E52">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v>i18n_8c5a766e3f7f</v>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52" t="str">
+        <v>258981694b33</v>
+      </c>
+      <c r="J52" t="str">
+        <v>ComplexTestComponent | accessibilityLabel="可访问性标签" 正常显示的嵌套文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K52" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v/>
+        <v>i18n_43880f8e830a</v>
       </c>
       <c r="B53" t="str">
-        <v>正常显示文本4</v>
+        <v>多行JSX中的正常文本</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
       </c>
       <c r="D53" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E53">
-        <v>19</v>
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
       </c>
       <c r="F53" t="str">
-        <v>i18n_6a95db2b99d6</v>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H53">
+        <v>22</v>
+      </c>
+      <c r="I53" t="str">
+        <v>ab9e41b0b28d</v>
+      </c>
+      <c r="J53" t="str">
+        <v>ComplexTestComponent | } 多行JSX中的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K53" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v/>
+        <v>i18n_11abbc5a3533</v>
       </c>
       <c r="B54" t="str">
-        <v>正常显示文本5</v>
+        <v>模板字符串testID的正常文本</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
       </c>
       <c r="D54" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E54">
-        <v>22</v>
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
       </c>
       <c r="F54" t="str">
-        <v>i18n_7bf95dcec84e</v>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H54">
+        <v>27</v>
+      </c>
+      <c r="I54" t="str">
+        <v>091d9c88c67d</v>
+      </c>
+      <c r="J54" t="str">
+        <v>ComplexTestComponent | {/* 模板字符串作为testID */} 模板字符串testID的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K54" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v/>
+        <v>i18n_68312ff61ad3</v>
       </c>
       <c r="B55" t="str">
-        <v>这是普通中文文本</v>
+        <v>无障碍相关的正常文本</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
       </c>
       <c r="D55" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E55">
-        <v>25</v>
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v/>
       </c>
       <c r="F55" t="str">
-        <v>i18n_341966ac0dd9</v>
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
+      </c>
+      <c r="I55" t="str">
+        <v>b9678018a436</v>
+      </c>
+      <c r="J55" t="str">
+        <v>ComplexTestComponent | {/* 非testID的属性，应该被扫描 */} 无障碍相关的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K55" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v/>
+        <v>i18n_74ffa0678560</v>
       </c>
       <c r="B56" t="str">
-        <v>这是Toast消息</v>
+        <v>动态testID的正常文本</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
       </c>
       <c r="D56" t="str">
-        <v>test/testIdFormats.js</v>
-      </c>
-      <c r="E56">
-        <v>28</v>
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
       </c>
       <c r="F56" t="str">
-        <v>i18n_b5b3a30b7d70</v>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H56">
+        <v>37</v>
+      </c>
+      <c r="I56" t="str">
+        <v>0312ad55aed4</v>
+      </c>
+      <c r="J56" t="str">
+        <v>ComplexTestComponent | {/* 动态testID（表达式），字符串部分应被忽略 */} 动态testID的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K56" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v/>
+        <v>i18n_66480910abe7</v>
       </c>
       <c r="B57" t="str">
-        <v>配置标题文本</v>
+        <v>多属性嵌套文本</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
       </c>
       <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H57">
+        <v>29</v>
+      </c>
+      <c r="I57" t="str">
+        <v>8dfc902ab457</v>
+      </c>
+      <c r="J57" t="str">
+        <v xml:space="preserve"> | data-test="数据测试属性应该扫描" 多属性嵌套文本 &lt;/div&gt;</v>
+      </c>
+      <c r="K57" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>i18n_eed536ab7bc1</v>
+      </c>
+      <c r="B58" t="str">
+        <v>模板字符串测试ID3</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H58">
+        <v>27</v>
+      </c>
+      <c r="I58" t="str">
+        <v>4e96f3294fe7</v>
+      </c>
+      <c r="J58" t="str">
+        <v>ComplexTestComponent | {/* 模板字符串作为testID */} 模板字符串testID的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K58" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>i18n_27ed19edd572</v>
+      </c>
+      <c r="B59" t="str">
+        <v>动态测试ID</v>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H59">
+        <v>37</v>
+      </c>
+      <c r="I59" t="str">
+        <v>cb473e7f8283</v>
+      </c>
+      <c r="J59" t="str">
+        <v>ComplexTestComponent | {/* 动态testID（表达式），字符串部分应被忽略 */} 动态testID的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K59" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>i18n_f239a88734e6</v>
+      </c>
+      <c r="B60" t="str">
+        <v>拼接部分</v>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v>test/complexTestId.js</v>
+      </c>
+      <c r="H60">
+        <v>37</v>
+      </c>
+      <c r="I60" t="str">
+        <v>5d8c849ab70c</v>
+      </c>
+      <c r="J60" t="str">
+        <v>ComplexTestComponent | {/* 动态testID（表达式），字符串部分应被忽略 */} 动态testID的正常文本 &lt;/Text&gt;</v>
+      </c>
+      <c r="K60" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>i18n_20aa1e4c7f6a</v>
+      </c>
+      <c r="B61" t="str">
+        <v>基础模板字符串ID</v>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61" t="str">
+        <v>a41ee6e45fb8</v>
+      </c>
+      <c r="J61" t="str">
+        <v xml:space="preserve"> | &lt;div testID={'基础单引号ID'}&gt;基础单引号文本&lt;/div&gt; &lt;div testID={dynamicId}&gt;动态变量文本&lt;/div&gt; </v>
+      </c>
+      <c r="K61" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>i18n_7efb5c0b9003</v>
+      </c>
+      <c r="B62" t="str">
+        <v>复杂</v>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H62">
+        <v>16</v>
+      </c>
+      <c r="I62" t="str">
+        <v>3c187d23fc28</v>
+      </c>
+      <c r="J62" t="str">
+        <v xml:space="preserve"> | {/* 复杂表达式测试 */} &lt;div testID={`模板${dynamicId}拼接ID`}&gt;模板拼接文本&lt;/div&gt; </v>
+      </c>
+      <c r="K62" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>i18n_a6b363bb757d</v>
+      </c>
+      <c r="B63" t="str">
+        <v>拼接</v>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H63">
+        <v>16</v>
+      </c>
+      <c r="I63" t="str">
+        <v>be8584dc8f94</v>
+      </c>
+      <c r="J63" t="str">
+        <v xml:space="preserve"> | {/* 复杂表达式测试 */} &lt;div testID={`模板${dynamicId}拼接ID`}&gt;模板拼接文本&lt;/div&gt; </v>
+      </c>
+      <c r="K63" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>i18n_b7e10f8dfa3b</v>
+      </c>
+      <c r="B64" t="str">
+        <v>模板{{Identifier1}}拼接ID</v>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H64">
+        <v>17</v>
+      </c>
+      <c r="I64" t="str">
+        <v>b2709589a4ed</v>
+      </c>
+      <c r="J64" t="str">
+        <v xml:space="preserve"> | &lt;div testID={'复杂' + '拼接' + 'ID'}&gt;复杂拼接文本&lt;/div&gt;  {/* 对象属性格式测试 */}</v>
+      </c>
+      <c r="K64" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>i18n_3bd5d5468023</v>
+      </c>
+      <c r="B65" t="str">
+        <v>对象样式中的测试ID</v>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H65">
+        <v>20</v>
+      </c>
+      <c r="I65" t="str">
+        <v>e58406340a66</v>
+      </c>
+      <c r="J65" t="str">
+        <v xml:space="preserve"> | {/* 对象属性格式测试 */} &lt;div {...{testID: '扩展对象中的测试ID'}}&gt;扩展对象文本&lt;/div&gt; </v>
+      </c>
+      <c r="K65" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>i18n_f8cc892561c2</v>
+      </c>
+      <c r="B66" t="str">
+        <v>扩展对象中的测试ID</v>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H66">
+        <v>21</v>
+      </c>
+      <c r="I66" t="str">
+        <v>101fd8948dae</v>
+      </c>
+      <c r="J66" t="str">
+        <v xml:space="preserve"> | &lt;div style={{testID: '对象样式中的测试ID'}}&gt;对象样式文本&lt;/div&gt;  {/* 嵌套和多属性测试 */}</v>
+      </c>
+      <c r="K66" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>i18n_639921f2b974</v>
+      </c>
+      <c r="B67" t="str">
+        <v>配置对象testID</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H67">
+        <v>57</v>
+      </c>
+      <c r="I67" t="str">
+        <v>a95a4e0fcf2a</v>
+      </c>
+      <c r="J67" t="str">
+        <v xml:space="preserve"> | const config = { title: '配置对象标题', nested: {</v>
+      </c>
+      <c r="K67" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>i18n_5d6ecd791672</v>
+      </c>
+      <c r="B68" t="str">
+        <v>嵌套对象testID</v>
+      </c>
+      <c r="C68" t="str">
+        <v/>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <v>test/finalTest.js</v>
+      </c>
+      <c r="H68">
+        <v>60</v>
+      </c>
+      <c r="I68" t="str">
+        <v>63b359bfad2c</v>
+      </c>
+      <c r="J68" t="str">
+        <v xml:space="preserve"> | nested: { label: '嵌套对象标签' }</v>
+      </c>
+      <c r="K68" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>i18n_27e5d17c4f80</v>
+      </c>
+      <c r="B69" t="str">
+        <v>对象属性测试ID</v>
+      </c>
+      <c r="C69" t="str">
+        <v/>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="G69" t="str">
         <v>test/testIdFormats.js</v>
       </c>
-      <c r="E57">
-        <v>36</v>
-      </c>
-      <c r="F57" t="str">
-        <v>i18n_d7b6ace8d1e6</v>
+      <c r="H69">
+        <v>19</v>
+      </c>
+      <c r="I69" t="str">
+        <v>76e8ab1d6cb9</v>
+      </c>
+      <c r="J69" t="str">
+        <v>TestComponent | {/* 对象属性格式 */}  {/* 对象属性格式 - 不带引号的key */}</v>
+      </c>
+      <c r="K69" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>i18n_65f02a73e5e6</v>
+      </c>
+      <c r="B70" t="str">
+        <v>对象属性测试ID2</v>
+      </c>
+      <c r="C70" t="str">
+        <v/>
+      </c>
+      <c r="D70" t="str">
+        <v/>
+      </c>
+      <c r="E70" t="str">
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H70">
+        <v>22</v>
+      </c>
+      <c r="I70" t="str">
+        <v>83e794c4b4b0</v>
+      </c>
+      <c r="J70" t="str">
+        <v>TestComponent | {/* 对象属性格式 - 不带引号的key */}  {/* 普通文本 - 应该被扫描 */}</v>
+      </c>
+      <c r="K70" t="str">
+        <v>ACTIVE</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>i18n_6377f75ec29b</v>
+      </c>
+      <c r="B71" t="str">
+        <v>配置对象中的测试ID</v>
+      </c>
+      <c r="C71" t="str">
+        <v/>
+      </c>
+      <c r="D71" t="str">
+        <v/>
+      </c>
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <v>test/testIdFormats.js</v>
+      </c>
+      <c r="H71">
+        <v>35</v>
+      </c>
+      <c r="I71" t="str">
+        <v>762067a25f81</v>
+      </c>
+      <c r="J71" t="str">
+        <v xml:space="preserve"> | const config = { title: '配置标题文本' };</v>
+      </c>
+      <c r="K71" t="str">
+        <v>ACTIVE</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K71"/>
   </ignoredErrors>
 </worksheet>
 </file>